--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2651658.311200704</v>
+        <v>2767092.401942156</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>150.1450882057763</v>
+        <v>152.0747039460366</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.7933161434362</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>164.0442503305536</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>34.1083371873407</v>
       </c>
       <c r="T4" t="n">
-        <v>34.10833718734084</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.09313313066309</v>
+        <v>344.1534663782083</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.2901165380507</v>
+        <v>92.85788772760031</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.78647639804544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.6687096750906</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>163.4218392727545</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>188.8837547751721</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,28 +977,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>85.22135914419101</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.1416299551551</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074786</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>188.8837547751721</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.40755132532454</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>36.42743882976242</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>53.45534151883339</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>24.14763241892861</v>
+        <v>183.3870324181976</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>130.3512340970919</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>29.28952983701037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>79.64862761767925</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187862</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>130.5513683573777</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>114.2935157990533</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>28.45765197016587</v>
       </c>
       <c r="S16" t="n">
-        <v>46.35517081455656</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>40.67793690094114</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.0162797694411</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2293,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>212.3267021497095</v>
       </c>
     </row>
     <row r="23">
@@ -2369,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.94435783112388</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>26.05480806223585</v>
+        <v>19.51567534720847</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3029,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.434538210426277</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>89.67992556049211</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>24.83266606353076</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>74.53917159609115</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0.6197054599889589</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>30.97191586387592</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.32649042089825</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>1.207068174442234</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.2420264262259</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="C2" t="n">
-        <v>672.2420264262259</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="D2" t="n">
-        <v>672.2420264262259</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="E2" t="n">
-        <v>672.2420264262259</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="F2" t="n">
-        <v>520.580321167866</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513812</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262259</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262259</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262259</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262259</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262259</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262259</v>
+        <v>181.8429936158254</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.3969746333036</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="C3" t="n">
-        <v>132.3969746333036</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="D3" t="n">
-        <v>132.3969746333036</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="E3" t="n">
-        <v>132.3969746333036</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F3" t="n">
-        <v>132.3969746333036</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G3" t="n">
-        <v>132.3969746333036</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264286</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264286</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T3" t="n">
-        <v>511.2365446662735</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U3" t="n">
-        <v>321.8167596497885</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="V3" t="n">
-        <v>321.8167596497885</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="W3" t="n">
-        <v>321.8167596497885</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="X3" t="n">
-        <v>132.3969746333036</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="Y3" t="n">
-        <v>132.3969746333036</v>
+        <v>181.8429936158254</v>
       </c>
     </row>
     <row r="4">
@@ -4492,28 +4494,28 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
         <v>15.0020469733056</v>
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>161.8372614026453</v>
+        <v>1255.932088254664</v>
       </c>
       <c r="C5" t="n">
-        <v>161.8372614026453</v>
+        <v>886.9695713142528</v>
       </c>
       <c r="D5" t="n">
-        <v>161.8372614026453</v>
+        <v>886.9695713142528</v>
       </c>
       <c r="E5" t="n">
-        <v>161.8372614026453</v>
+        <v>886.9695713142528</v>
       </c>
       <c r="F5" t="n">
-        <v>154.8917606534419</v>
+        <v>475.9836665246452</v>
       </c>
       <c r="G5" t="n">
-        <v>141.6663736527721</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
-        <v>141.6663736527721</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>15.11070038201377</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J5" t="n">
-        <v>21.53729092590549</v>
+        <v>111.6705539017222</v>
       </c>
       <c r="K5" t="n">
-        <v>81.90760247543693</v>
+        <v>277.9807166746984</v>
       </c>
       <c r="L5" t="n">
-        <v>193.7040741186822</v>
+        <v>521.2049416030773</v>
       </c>
       <c r="M5" t="n">
-        <v>349.768627139845</v>
+        <v>823.5081935709195</v>
       </c>
       <c r="N5" t="n">
-        <v>512.9722761681899</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>653.7455927875778</v>
+        <v>1416.413635079242</v>
       </c>
       <c r="P5" t="n">
-        <v>739.3913607574837</v>
+        <v>1621.822248332761</v>
       </c>
       <c r="Q5" t="n">
-        <v>755.5350191006884</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="R5" t="n">
-        <v>677.9729217289253</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="S5" t="n">
-        <v>517.7014978146924</v>
+        <v>1586.994975598235</v>
       </c>
       <c r="T5" t="n">
-        <v>352.6289328927182</v>
+        <v>1586.994975598235</v>
       </c>
       <c r="U5" t="n">
-        <v>352.6289328927182</v>
+        <v>1586.994975598235</v>
       </c>
       <c r="V5" t="n">
-        <v>161.8372614026453</v>
+        <v>1255.932088254664</v>
       </c>
       <c r="W5" t="n">
-        <v>161.8372614026453</v>
+        <v>1255.932088254664</v>
       </c>
       <c r="X5" t="n">
-        <v>161.8372614026453</v>
+        <v>1255.932088254664</v>
       </c>
       <c r="Y5" t="n">
-        <v>161.8372614026453</v>
+        <v>1255.932088254664</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364.0957603808741</v>
+        <v>575.3466599103078</v>
       </c>
       <c r="C6" t="n">
-        <v>189.6427310997472</v>
+        <v>575.3466599103078</v>
       </c>
       <c r="D6" t="n">
-        <v>189.6427310997472</v>
+        <v>426.4122502490566</v>
       </c>
       <c r="E6" t="n">
-        <v>30.40527609429164</v>
+        <v>267.1747952436011</v>
       </c>
       <c r="F6" t="n">
-        <v>30.40527609429164</v>
+        <v>120.640237270486</v>
       </c>
       <c r="G6" t="n">
-        <v>30.40527609429164</v>
+        <v>120.640237270486</v>
       </c>
       <c r="H6" t="n">
-        <v>30.40527609429164</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I6" t="n">
-        <v>30.40527609429164</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J6" t="n">
-        <v>15.11070038201377</v>
+        <v>61.66788464787555</v>
       </c>
       <c r="K6" t="n">
-        <v>67.64486236340946</v>
+        <v>186.1577239806068</v>
       </c>
       <c r="L6" t="n">
-        <v>184.6060674208098</v>
+        <v>399.8722171189987</v>
       </c>
       <c r="M6" t="n">
-        <v>340.4511451914207</v>
+        <v>668.6238185223514</v>
       </c>
       <c r="N6" t="n">
-        <v>514.829623354865</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>652.1320680747608</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>742.9963185165493</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>753.8174671994236</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>753.8174671994236</v>
+        <v>1401.100270703776</v>
       </c>
       <c r="S6" t="n">
-        <v>753.8174671994236</v>
+        <v>1401.100270703776</v>
       </c>
       <c r="T6" t="n">
-        <v>753.8174671994236</v>
+        <v>1205.559652423531</v>
       </c>
       <c r="U6" t="n">
-        <v>753.8174671994236</v>
+        <v>1205.559652423531</v>
       </c>
       <c r="V6" t="n">
-        <v>563.0257957093507</v>
+        <v>1205.559652423531</v>
       </c>
       <c r="W6" t="n">
-        <v>563.0257957093507</v>
+        <v>951.3222956953298</v>
       </c>
       <c r="X6" t="n">
-        <v>563.0257957093507</v>
+        <v>951.3222956953298</v>
       </c>
       <c r="Y6" t="n">
-        <v>532.3110974009421</v>
+        <v>743.5619969303759</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="C7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="D7" t="n">
-        <v>69.10599484548185</v>
+        <v>333.0236568284658</v>
       </c>
       <c r="E7" t="n">
-        <v>69.10599484548185</v>
+        <v>333.0236568284658</v>
       </c>
       <c r="F7" t="n">
-        <v>15.11070038201377</v>
+        <v>186.1337093305555</v>
       </c>
       <c r="G7" t="n">
-        <v>15.11070038201377</v>
+        <v>186.1337093305555</v>
       </c>
       <c r="H7" t="n">
-        <v>15.11070038201377</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I7" t="n">
-        <v>15.11070038201377</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J7" t="n">
-        <v>15.11070038201377</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="K7" t="n">
-        <v>15.11070038201377</v>
+        <v>64.24066662574712</v>
       </c>
       <c r="L7" t="n">
-        <v>27.45863662426321</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>43.73608709747968</v>
+        <v>206.9680378347978</v>
       </c>
       <c r="N7" t="n">
-        <v>67.48402208628178</v>
+        <v>287.8841338195375</v>
       </c>
       <c r="O7" t="n">
-        <v>69.10599484548185</v>
+        <v>342.3101561934727</v>
       </c>
       <c r="P7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="R7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="S7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="T7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="U7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="V7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="W7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="X7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.10599484548185</v>
+        <v>369.8190495858016</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>1815.691171634543</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>1442.225413373463</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>1256.985986688415</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>792.5917283815676</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>1734.238298972668</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>1367.17204860765</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1132.019940375907</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1132.019940375907</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1132.019940375907</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>924.2596416109534</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396067</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396067</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396067</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="S10" t="n">
-        <v>891.3016221444371</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="T10" t="n">
-        <v>669.5350067139632</v>
+        <v>273.8625692440775</v>
       </c>
       <c r="U10" t="n">
-        <v>380.4321398396067</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="V10" t="n">
-        <v>380.4321398396067</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="W10" t="n">
-        <v>380.4321398396067</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="X10" t="n">
-        <v>380.4321398396067</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4321398396067</v>
+        <v>193.4094100343004</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,10 +5059,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459591</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180522</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057164</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>449.4852666057164</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>449.4852666057164</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.469384076044</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.867919098985</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919729</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761988</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2418.217980580093</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.093974969474</v>
+        <v>2235.363146234998</v>
       </c>
       <c r="T16" t="n">
-        <v>2113.492509992416</v>
+        <v>2015.761681257939</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.417283336614</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5713,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254209</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6078,16 +6080,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6187,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="26">
@@ -6227,16 +6229,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6254,7 +6256,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6266,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F28" t="n">
-        <v>261.8464821474262</v>
+        <v>337.3280009388789</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,34 +6478,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,10 +6703,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6719,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768874</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E34" t="n">
-        <v>414.4022433768874</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F34" t="n">
-        <v>267.5122958789771</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>100.316196593857</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406468</v>
@@ -6926,28 +6928,28 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7026,13 +7028,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2421.879582505987</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2239.024748160891</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7202,22 +7204,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192741</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D43" t="n">
-        <v>580.8993044876688</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E43" t="n">
-        <v>580.8993044876688</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F43" t="n">
-        <v>434.0093569897584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>266.8132577046384</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>125.1014265468364</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7606,13 +7608,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,16 +7730,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2951.54259528685</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C46" t="n">
-        <v>2782.606412358944</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>2632.489772946608</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>2484.576679364215</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2445.743822797996</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>2226.142357820936</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1937.067131165134</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W46" t="n">
-        <v>3455.19996817779</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X46" t="n">
-        <v>3227.210417279773</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y46" t="n">
-        <v>3006.417838136243</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
   </sheetData>
@@ -23422,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.97276993489112</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>66.73277020259125</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.91759473995579</v>
       </c>
       <c r="S16" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>104.7431111219901</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>6.257951202385328</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.7652975579133</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.469330230033</v>
+        <v>146.0084629450604</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24923,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>133.8601746357976</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>127.7255247667962</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.54258064659092</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>70.88187642684009</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>144.8013425629423</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>50.29392045468961</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.505489761039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>179.8192178272024</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="K2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442543</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442545</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442547</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442548</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.414218519307</v>
+        <v>270592.3620253131</v>
       </c>
       <c r="D3" t="n">
-        <v>662166.6844385734</v>
+        <v>115410.0540231933</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>601443.2075742643</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854457</v>
+        <v>49064.94472854464</v>
       </c>
       <c r="K3" t="n">
-        <v>349.5488811550921</v>
+        <v>62913.6376588198</v>
       </c>
       <c r="L3" t="n">
-        <v>162615.4473694186</v>
+        <v>27875.25362197499</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>278136.7270444452</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26442,7 +26444,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26451,10 +26453,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>57093.86446622577</v>
+        <v>76435.73471936824</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249519.8076285549</v>
+        <v>-249519.8076285551</v>
       </c>
       <c r="C6" t="n">
-        <v>340625.4544088439</v>
+        <v>123726.9404670063</v>
       </c>
       <c r="D6" t="n">
-        <v>-186337.9089659858</v>
+        <v>302547.3341700708</v>
       </c>
       <c r="E6" t="n">
-        <v>224534.257071125</v>
+        <v>-51496.48869578348</v>
       </c>
       <c r="F6" t="n">
-        <v>549946.7188784806</v>
+        <v>549946.7188784803</v>
       </c>
       <c r="G6" t="n">
-        <v>549946.7188784806</v>
+        <v>549946.7188784804</v>
       </c>
       <c r="H6" t="n">
-        <v>549946.7188784803</v>
+        <v>549946.7188784804</v>
       </c>
       <c r="I6" t="n">
-        <v>549946.7188784806</v>
+        <v>549946.7188784804</v>
       </c>
       <c r="J6" t="n">
-        <v>500881.7741499359</v>
+        <v>500881.7741499355</v>
       </c>
       <c r="K6" t="n">
-        <v>549597.1699973249</v>
+        <v>487033.0812196605</v>
       </c>
       <c r="L6" t="n">
-        <v>387331.2715090616</v>
+        <v>522071.4652565058</v>
       </c>
       <c r="M6" t="n">
-        <v>464891.6909429685</v>
+        <v>392800.3383268824</v>
       </c>
       <c r="N6" t="n">
-        <v>549946.7188784801</v>
+        <v>549946.7188784799</v>
       </c>
       <c r="O6" t="n">
-        <v>549946.7188784801</v>
+        <v>549946.71887848</v>
       </c>
       <c r="P6" t="n">
         <v>549946.7188784804</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>549.6390906373997</v>
+        <v>758.8996292950623</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>188.8837547751721</v>
+        <v>431.9757039594718</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>1.169149724494901</v>
+        <v>210.4296883821576</v>
       </c>
       <c r="D3" t="n">
-        <v>540.1376099558986</v>
+        <v>94.81103524262289</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>514.2648358039888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>1.358167608852019</v>
+        <v>244.4501167931517</v>
       </c>
       <c r="D4" t="n">
-        <v>642.5177006271208</v>
+        <v>110.1392527666926</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608852019</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271208</v>
+        <v>110.1392527666926</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608852019</v>
+        <v>244.4501167931517</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271208</v>
+        <v>110.1392527666926</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>256.7309575359351</v>
+        <v>254.8013417956749</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>22.9151828448795</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27475,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>31.36534746144764</v>
+        <v>7.884010625681227</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377085</v>
+        <v>38.33818124377091</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715741</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27558,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>172.6719186081555</v>
       </c>
       <c r="T4" t="n">
-        <v>189.6113363027592</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>68.09841835584109</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8456912132937</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425892</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>50.0014670983509</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1688845570787</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>138.8685036949628</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27695,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1612745908962</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8174699196705</v>
+        <v>11.24901920827028</v>
       </c>
       <c r="I6" t="n">
-        <v>58.81797564619256</v>
+        <v>43.3208508493751</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.27675899167119</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7235338505417</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>195.3994614844842</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8636029643752</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>43.91683237425318</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.2751444519798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,28 +27779,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>112.1880341884499</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>91.96570650409785</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9998268999323</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4149261034498</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>125.643817356299</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>56.92094262157551</v>
+        <v>30.24193919304041</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85936344355233</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>17.85261942882038</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.50949894319849</v>
+        <v>36.91115760589145</v>
       </c>
       <c r="R7" t="n">
-        <v>132.7275726510616</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7435138279248</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7106652873048</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2649664951167</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>362.090306237125</v>
+        <v>202.850906237856</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>36.18194955277539</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27983,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,10 +27994,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>160.4794954944315</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>206.5864301980374</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29575,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31045,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.209604384471957</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>22.62911090247344</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>85.1857730323552</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5374101265769</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>281.0699637212749</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>348.6921439025587</v>
+        <v>481.4474502511781</v>
       </c>
       <c r="M5" t="n">
-        <v>387.9871958749118</v>
+        <v>535.7030533968104</v>
       </c>
       <c r="N5" t="n">
-        <v>394.2652343322928</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>372.2934807341997</v>
+        <v>514.0343715191494</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7438724925482</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.6124154736462</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>138.7990614160867</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>50.35135991115477</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>9.672543193025996</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1767683507577565</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.182242572314407</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>11.41797431682599</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>40.70440435380744</v>
+        <v>56.2015291506249</v>
       </c>
       <c r="J6" t="n">
-        <v>111.6959967115116</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>190.9062490565769</v>
+        <v>263.5887514316633</v>
       </c>
       <c r="L6" t="n">
-        <v>256.6970111509856</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>299.5533043973828</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>307.4815890161054</v>
+        <v>424.547067146867</v>
       </c>
       <c r="O6" t="n">
-        <v>281.2855825453493</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>225.756478567652</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.9122273010461</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>73.40274497229277</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9596372532961</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>4.765267210337454</v>
+        <v>6.579516597378887</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07777911659963206</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9911524585264584</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>8.812246403989791</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>29.80665757095932</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>70.07447881782061</v>
+        <v>96.7534822463557</v>
       </c>
       <c r="K7" t="n">
-        <v>115.1538947269831</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>147.3573391521973</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>155.3676531124702</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>151.6733575852353</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>140.0948947742671</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>119.8753846203272</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99550268624735</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>44.56581872610784</v>
+        <v>61.53307486054716</v>
       </c>
       <c r="S7" t="n">
-        <v>17.27308420904745</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>4.234924140976685</v>
+        <v>5.847259438830806</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05406286137417052</v>
+        <v>0.07464586517656358</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145765</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>615.0381444378773</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32470,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32555,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32798,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,13 +33505,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>608.2694430035901</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33910,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33974,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34448,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.491505599890644</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>60.98011267629437</v>
+        <v>167.9900634070467</v>
       </c>
       <c r="L5" t="n">
-        <v>112.9257289325714</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>157.640962647639</v>
+        <v>305.3568201695377</v>
       </c>
       <c r="N5" t="n">
-        <v>164.8521707357019</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>142.195269312513</v>
+        <v>283.9361600974627</v>
       </c>
       <c r="P5" t="n">
-        <v>86.51087673727869</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.30672559919671</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>53.06481008221786</v>
+        <v>125.7473124573043</v>
       </c>
       <c r="L6" t="n">
-        <v>118.1426313711115</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4192704753645</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>176.1398769327721</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>138.6893381009048</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>91.78207115332174</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.93045321502456</v>
+        <v>68.38629016872844</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47266287095903</v>
+        <v>68.57507023501498</v>
       </c>
       <c r="M7" t="n">
-        <v>16.44186916486512</v>
+        <v>75.59399159230898</v>
       </c>
       <c r="N7" t="n">
-        <v>23.98781312000213</v>
+        <v>81.73343028761582</v>
       </c>
       <c r="O7" t="n">
-        <v>1.638356322424301</v>
+        <v>54.97578017569214</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312432</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>472.904110515859</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36203,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38096,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2767092.401942156</v>
+        <v>2762787.278945089</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>130.1712092340057</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>152.0747039460366</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>149.7933161434362</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>69.64457433799568</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>34.1083371873407</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>344.1534663782083</v>
+        <v>12.25188473404939</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760031</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>211.3183739430581</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -986,13 +986,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>85.22135914419101</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074786</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>193.5852120974428</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>41.73030126271176</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>36.42743882976242</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>119.3342385144838</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304088</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589201</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>77.31544590725699</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>183.3870324181976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>130.3512340970919</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>29.83895849105841</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>136.3525127092063</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>79.64862761767925</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>75.12653431054493</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>114.2935157990533</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144413</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.45765197016587</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>40.67793690094114</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>95.81917536083746</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.3267021497095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>13.94435783112388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>19.51567534720847</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>156.0046924576058</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>89.67992556049211</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.83266606353076</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>74.53917159609115</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6197054599889589</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>1.207068174442234</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>251.5502284016995</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158254</v>
+        <v>293.4024563932551</v>
       </c>
       <c r="C2" t="n">
-        <v>181.8429936158254</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>181.8429936158254</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>181.8429936158254</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487952</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487952</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="V2" t="n">
-        <v>371.2627786323103</v>
+        <v>482.8222414097396</v>
       </c>
       <c r="W2" t="n">
-        <v>371.2627786323103</v>
+        <v>482.8222414097396</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323103</v>
+        <v>482.8222414097396</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.8429936158254</v>
+        <v>482.8222414097396</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.8429936158254</v>
+        <v>319.3026855898742</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296053</v>
+        <v>144.8496563087472</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296053</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296053</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296053</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487952</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="U3" t="n">
-        <v>371.2627786323103</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="V3" t="n">
-        <v>181.8429936158254</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158254</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158254</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158254</v>
+        <v>487.5180226099422</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1255.932088254664</v>
+        <v>53.87919821146531</v>
       </c>
       <c r="C5" t="n">
-        <v>886.9695713142528</v>
+        <v>53.87919821146531</v>
       </c>
       <c r="D5" t="n">
-        <v>886.9695713142528</v>
+        <v>53.87919821146531</v>
       </c>
       <c r="E5" t="n">
-        <v>886.9695713142528</v>
+        <v>53.87919821146531</v>
       </c>
       <c r="F5" t="n">
-        <v>475.9836665246452</v>
+        <v>46.93369746226183</v>
       </c>
       <c r="G5" t="n">
-        <v>128.353902506253</v>
+        <v>34.55805631675739</v>
       </c>
       <c r="H5" t="n">
-        <v>128.353902506253</v>
+        <v>34.55805631675739</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675739</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017222</v>
+        <v>111.6705539017206</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746984</v>
+        <v>277.9807166746949</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030773</v>
+        <v>521.2049416030712</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709195</v>
+        <v>823.508193570911</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582754</v>
+        <v>1135.316836582743</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079242</v>
+        <v>1416.413635079228</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332761</v>
+        <v>1621.822248332745</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837887</v>
+        <v>1727.90281583787</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837887</v>
+        <v>1727.90281583787</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.994975598235</v>
+        <v>1727.90281583787</v>
       </c>
       <c r="T5" t="n">
-        <v>1586.994975598235</v>
+        <v>1727.90281583787</v>
       </c>
       <c r="U5" t="n">
-        <v>1586.994975598235</v>
+        <v>1514.449912865084</v>
       </c>
       <c r="V5" t="n">
-        <v>1255.932088254664</v>
+        <v>1183.387025521513</v>
       </c>
       <c r="W5" t="n">
-        <v>1255.932088254664</v>
+        <v>830.6183702513988</v>
       </c>
       <c r="X5" t="n">
-        <v>1255.932088254664</v>
+        <v>830.6183702513988</v>
       </c>
       <c r="Y5" t="n">
-        <v>1255.932088254664</v>
+        <v>440.4790382755871</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>575.3466599103078</v>
+        <v>342.7299209834641</v>
       </c>
       <c r="C6" t="n">
-        <v>575.3466599103078</v>
+        <v>342.7299209834641</v>
       </c>
       <c r="D6" t="n">
-        <v>426.4122502490566</v>
+        <v>193.7955113222129</v>
       </c>
       <c r="E6" t="n">
-        <v>267.1747952436011</v>
+        <v>34.55805631675739</v>
       </c>
       <c r="F6" t="n">
-        <v>120.640237270486</v>
+        <v>34.55805631675739</v>
       </c>
       <c r="G6" t="n">
-        <v>120.640237270486</v>
+        <v>34.55805631675739</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675739</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675739</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787555</v>
+        <v>61.66788464787444</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806068</v>
+        <v>186.1577239806044</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189987</v>
+        <v>399.8722171189946</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223514</v>
+        <v>668.6238185223452</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.8971200352414</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228311</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639499</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906539</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703776</v>
+        <v>1445.878660906539</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703776</v>
+        <v>1445.878660906539</v>
       </c>
       <c r="T6" t="n">
-        <v>1205.559652423531</v>
+        <v>1250.338042626294</v>
       </c>
       <c r="U6" t="n">
-        <v>1205.559652423531</v>
+        <v>1250.338042626294</v>
       </c>
       <c r="V6" t="n">
-        <v>1205.559652423531</v>
+        <v>1015.185934394551</v>
       </c>
       <c r="W6" t="n">
-        <v>951.3222956953298</v>
+        <v>760.9485776663496</v>
       </c>
       <c r="X6" t="n">
-        <v>951.3222956953298</v>
+        <v>553.0970774608168</v>
       </c>
       <c r="Y6" t="n">
-        <v>743.5619969303759</v>
+        <v>510.9452580035322</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="D7" t="n">
-        <v>333.0236568284658</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="E7" t="n">
-        <v>333.0236568284658</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="F7" t="n">
-        <v>186.1337093305555</v>
+        <v>185.6451045061762</v>
       </c>
       <c r="G7" t="n">
-        <v>186.1337093305555</v>
+        <v>65.10546964306131</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675774</v>
+        <v>65.10546964306131</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675774</v>
+        <v>65.10546964306131</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675739</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574712</v>
+        <v>64.240666625746</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584098</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347978</v>
+        <v>206.9680378347947</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195375</v>
+        <v>287.8841338195333</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934727</v>
+        <v>342.3101561934676</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495857957</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040866</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040866</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>870.3861466242935</v>
+        <v>1662.859413381708</v>
       </c>
       <c r="C8" t="n">
-        <v>870.3861466242935</v>
+        <v>1662.859413381708</v>
       </c>
       <c r="D8" t="n">
-        <v>870.3861466242935</v>
+        <v>1304.593714774958</v>
       </c>
       <c r="E8" t="n">
-        <v>870.3861466242935</v>
+        <v>918.8054621767137</v>
       </c>
       <c r="F8" t="n">
-        <v>459.4002418346859</v>
+        <v>507.8195573871062</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711882</v>
+        <v>669.587892771188</v>
       </c>
       <c r="M8" t="n">
         <v>1038.148464578732</v>
@@ -4831,25 +4831,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="W8" t="n">
-        <v>1815.691171634543</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="X8" t="n">
-        <v>1442.225413373463</v>
+        <v>1662.859413381708</v>
       </c>
       <c r="Y8" t="n">
-        <v>1256.985986688415</v>
+        <v>1662.859413381708</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>792.5917283815676</v>
+        <v>693.0104463829912</v>
       </c>
       <c r="C9" t="n">
-        <v>618.1386991004406</v>
+        <v>518.5574171018642</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1386991004406</v>
+        <v>369.6230074406129</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9012440949851</v>
+        <v>210.3855524351574</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581919</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809315</v>
@@ -4907,28 +4907,28 @@
         <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972668</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474386</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474386</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1367.17204860765</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="V9" t="n">
-        <v>1132.019940375907</v>
+        <v>1531.074939101748</v>
       </c>
       <c r="W9" t="n">
-        <v>1132.019940375907</v>
+        <v>1276.837582373546</v>
       </c>
       <c r="X9" t="n">
-        <v>1132.019940375907</v>
+        <v>1068.986082168013</v>
       </c>
       <c r="Y9" t="n">
-        <v>924.2596416109534</v>
+        <v>861.2257834030593</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="C10" t="n">
-        <v>193.4094100343004</v>
+        <v>359.7366157340737</v>
       </c>
       <c r="D10" t="n">
-        <v>193.4094100343004</v>
+        <v>209.6199763217379</v>
       </c>
       <c r="E10" t="n">
-        <v>193.4094100343004</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="F10" t="n">
-        <v>193.4094100343004</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="G10" t="n">
-        <v>193.4094100343004</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809315</v>
@@ -4992,22 +4992,22 @@
         <v>497.4664265514538</v>
       </c>
       <c r="T10" t="n">
-        <v>273.8625692440775</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="U10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="V10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="W10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="X10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514538</v>
       </c>
     </row>
     <row r="11">
@@ -5071,10 +5071,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.469384076044</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.867919098985</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.792692443183</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.108204237296</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373306</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2418.217980580093</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.363146234998</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2015.761681257939</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1726.686454602137</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C19" t="n">
-        <v>741.8431516380886</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D19" t="n">
-        <v>591.7265122257528</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E19" t="n">
-        <v>443.8134186433597</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,40 +6001,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6083,13 +6083,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.19898568143</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>337.3280009388789</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,34 +6475,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2039.482048055643</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>642.8692823226939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>473.9330993947871</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.5177471529337</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,34 +6955,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7031,13 +7031,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2421.879582505987</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2239.024748160891</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>958.2568473871653</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>737.4642682436352</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,25 +7186,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7265,10 +7265,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>336.3048548543961</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>870.3164745246296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>701.3802915967227</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>551.263652184387</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>403.3505586019938</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.757518498399</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.964939354869</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7742,13 +7742,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5348780504994</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2445.743822797996</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2226.142357820936</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1682.382642959247</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W46" t="n">
-        <v>1392.965472922287</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.975922024269</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>944.1833428807391</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>90.39760398172392</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>66.73277020259125</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>37.91759473995579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>104.7431111219901</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.70496293143138</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.257951202385328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>211.7652975579133</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>146.0084629450604</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>61.40075786968242</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>127.7255247667962</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>70.88187642684009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>144.8013425629423</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>179.8192178272024</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>34.97276993489146</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380347</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442553</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442543</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253131</v>
+        <v>270592.3620253088</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231933</v>
+        <v>115410.0540231979</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742643</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854464</v>
+        <v>49064.94472854444</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588198</v>
+        <v>62913.63765881897</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197499</v>
+        <v>27875.2536219761</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515978</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263473</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888974</v>
@@ -26438,13 +26438,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936824</v>
+        <v>76435.7347193679</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587233</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249519.8076285551</v>
+        <v>-249519.8076285544</v>
       </c>
       <c r="C6" t="n">
-        <v>123726.9404670063</v>
+        <v>123726.9404670107</v>
       </c>
       <c r="D6" t="n">
-        <v>302547.3341700708</v>
+        <v>302547.3341700663</v>
       </c>
       <c r="E6" t="n">
-        <v>-51496.48869578348</v>
+        <v>-51843.8679501404</v>
       </c>
       <c r="F6" t="n">
-        <v>549946.7188784803</v>
+        <v>549599.3396241234</v>
       </c>
       <c r="G6" t="n">
-        <v>549946.7188784804</v>
+        <v>549599.3396241236</v>
       </c>
       <c r="H6" t="n">
-        <v>549946.7188784804</v>
+        <v>549599.3396241234</v>
       </c>
       <c r="I6" t="n">
-        <v>549946.7188784804</v>
+        <v>549599.3396241236</v>
       </c>
       <c r="J6" t="n">
-        <v>500881.7741499355</v>
+        <v>500534.3948955793</v>
       </c>
       <c r="K6" t="n">
-        <v>487033.0812196605</v>
+        <v>486685.7019653046</v>
       </c>
       <c r="L6" t="n">
-        <v>522071.4652565058</v>
+        <v>521724.0860021476</v>
       </c>
       <c r="M6" t="n">
-        <v>392800.3383268824</v>
+        <v>392452.9590725258</v>
       </c>
       <c r="N6" t="n">
-        <v>549946.7188784799</v>
+        <v>549599.3396241236</v>
       </c>
       <c r="O6" t="n">
-        <v>549946.71887848</v>
+        <v>549599.3396241236</v>
       </c>
       <c r="P6" t="n">
-        <v>549946.7188784804</v>
+        <v>549599.3396241236</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950623</v>
+        <v>758.8996292950585</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376851</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594718</v>
+        <v>431.9757039594674</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261643</v>
@@ -26801,34 +26801,34 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821576</v>
+        <v>210.4296883821543</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262289</v>
+        <v>94.81103524262664</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039888</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931517</v>
+        <v>244.4501167931478</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666926</v>
+        <v>110.139252766697</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734843</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663193</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931514</v>
+        <v>244.4501167931482</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666926</v>
+        <v>110.139252766697</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931517</v>
+        <v>244.4501167931478</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666926</v>
+        <v>110.139252766697</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734843</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971609</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>235.1016825370018</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>254.8013417956749</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>140.2266713038153</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>22.9151828448795</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>77.80049122664308</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681227</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377091</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098472</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.39952676377833</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>172.6719186081555</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>68.09841835584109</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714736</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.8578877276009</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425892</v>
+        <v>23.94240680425986</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372558</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>39.78321074229154</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>11.24901920827028</v>
+        <v>96.47037835246138</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493751</v>
+        <v>43.32085084937538</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074836</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27754,16 +27754,16 @@
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>163.9523945145926</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>112.1880341884499</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>47.288233315738</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.0598964836598</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304041</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589145</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>115.7603165166226</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>334.5552889363698</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696038</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>202.850906237856</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.18194955277539</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>115.2302539023255</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>30.8943083894215</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,13 +28028,13 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>206.5864301980374</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085675</v>
+        <v>3.05085278108566</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429353</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.618001842805</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286693</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.0799144520253</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511781</v>
+        <v>481.4474502511757</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968104</v>
+        <v>535.7030533968078</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.3712888610675</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191494</v>
+        <v>514.0343715191469</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860946</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634659</v>
+        <v>329.4577782634643</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098723</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898954</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920248</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868539</v>
+        <v>0.2440682224868528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030881</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403509</v>
       </c>
       <c r="I6" t="n">
-        <v>56.2015291506249</v>
+        <v>56.20152915062462</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.221291647593</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316633</v>
+        <v>263.588751431662</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.4276051721875</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658068</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146867</v>
+        <v>424.5470671468649</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374438</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872477</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547489</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632156</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947723</v>
+        <v>30.32018801947708</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378887</v>
+        <v>6.579516597378854</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757159</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236991</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.1672760237798</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734535</v>
+        <v>41.15475366734515</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463557</v>
+        <v>96.75348224635523</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260794</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162523</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539914</v>
+        <v>214.519775539913</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752849</v>
+        <v>209.418974752848</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275349</v>
+        <v>193.432318627534</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650514992</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235538</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054716</v>
+        <v>61.53307486054685</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391191</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830806</v>
+        <v>5.847259438830776</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656358</v>
+        <v>0.07464586517656321</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -32080,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32709,34 +32709,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198297</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070467</v>
+        <v>167.9900634070448</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811885</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695377</v>
+        <v>305.3568201695351</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.9582252644765</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974627</v>
+        <v>283.9361600974602</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308272</v>
+        <v>207.483447730825</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890164</v>
+        <v>107.1520883890148</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092631</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573043</v>
+        <v>125.747312457303</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.8732253923133</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437905</v>
+        <v>271.4662640437885</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635316</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930012</v>
+        <v>245.7813799929993</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172919</v>
+        <v>177.7328761729175</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872844</v>
+        <v>68.38629016872741</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554404</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501498</v>
+        <v>68.57507023501398</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230898</v>
+        <v>75.5939915923079</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761582</v>
+        <v>81.73343028761479</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569214</v>
+        <v>54.9757801756912</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235162</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>469.7150632237159</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2762787.278945089</v>
+        <v>2764547.809247875</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>130.1712092340057</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>137.0472549757188</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666367</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.64457433799568</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>165.172537176095</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663203</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>52.2159462544349</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404939</v>
+        <v>181.3935639739454</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425924</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>211.3183739430581</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074803</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974428</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>216.4300723298723</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.73030126271176</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>119.3342385144838</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304088</v>
+        <v>30.24193919304057</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589201</v>
+        <v>36.91115760589163</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>98.13281470719755</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>77.31544590725699</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>281.097934536154</v>
       </c>
     </row>
     <row r="9">
@@ -1223,13 +1223,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>29.83895849105841</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>77.82539225759128</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.3525127092063</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>125.0721477169157</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>73.9777443545164</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>75.12653431054493</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520994</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>95.81917536083746</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>206.5358970628703</v>
       </c>
     </row>
     <row r="23">
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179874</v>
+        <v>136.4207955213655</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>156.0046924576058</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>19.865078448883</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>85.08368458989469</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>150.8783572808984</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881278</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>130.4114987159134</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>251.5502284016995</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.4024563932551</v>
+        <v>482.8222414097418</v>
       </c>
       <c r="C2" t="n">
-        <v>161.9163864599159</v>
+        <v>293.4024563932567</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>293.4024563932567</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>293.4024563932567</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348963</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348963</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678515</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058987</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123838</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985595</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020278</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.242026426227</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.242026426227</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.242026426227</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.242026426227</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097396</v>
+        <v>482.8222414097418</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097396</v>
+        <v>482.8222414097418</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097396</v>
+        <v>482.8222414097418</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097396</v>
+        <v>482.8222414097418</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.3026855898742</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C3" t="n">
-        <v>144.8496563087472</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140251</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.500058754661</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476359</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017076</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264268</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264268</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264268</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264268</v>
+        <v>560.6825636487961</v>
       </c>
       <c r="V3" t="n">
-        <v>676.9378076264268</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="W3" t="n">
-        <v>676.9378076264268</v>
+        <v>204.4218319897908</v>
       </c>
       <c r="X3" t="n">
-        <v>676.9378076264268</v>
+        <v>204.4218319897908</v>
       </c>
       <c r="Y3" t="n">
-        <v>487.5180226099422</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.0396705623019</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170745</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396374</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829038</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.87919821146531</v>
+        <v>940.113476303758</v>
       </c>
       <c r="C5" t="n">
-        <v>53.87919821146531</v>
+        <v>940.113476303758</v>
       </c>
       <c r="D5" t="n">
-        <v>53.87919821146531</v>
+        <v>940.113476303758</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146531</v>
+        <v>940.113476303758</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226183</v>
+        <v>529.1275715141505</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675739</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675739</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675739</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017206</v>
+        <v>111.6705539017214</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746949</v>
+        <v>277.980716674697</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030712</v>
+        <v>521.2049416030751</v>
       </c>
       <c r="M5" t="n">
-        <v>823.508193570911</v>
+        <v>823.5081935709165</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582743</v>
+        <v>1135.31683658275</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079228</v>
+        <v>1416.413635079237</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332745</v>
+        <v>1621.822248332755</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.90281583787</v>
+        <v>1727.902815837881</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.90281583787</v>
+        <v>1703.71856654065</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.90281583787</v>
+        <v>1703.71856654065</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.90281583787</v>
+        <v>1703.71856654065</v>
       </c>
       <c r="U5" t="n">
-        <v>1514.449912865084</v>
+        <v>1703.71856654065</v>
       </c>
       <c r="V5" t="n">
-        <v>1183.387025521513</v>
+        <v>1703.71856654065</v>
       </c>
       <c r="W5" t="n">
-        <v>830.6183702513988</v>
+        <v>1703.71856654065</v>
       </c>
       <c r="X5" t="n">
-        <v>830.6183702513988</v>
+        <v>1330.25280827957</v>
       </c>
       <c r="Y5" t="n">
-        <v>440.4790382755871</v>
+        <v>940.113476303758</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.7299209834641</v>
+        <v>663.7175082377064</v>
       </c>
       <c r="C6" t="n">
-        <v>342.7299209834641</v>
+        <v>489.2644789565794</v>
       </c>
       <c r="D6" t="n">
-        <v>193.7955113222129</v>
+        <v>340.3300692953281</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675739</v>
+        <v>181.0926142898726</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675739</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675739</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675739</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675739</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787444</v>
+        <v>61.66788464787518</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806044</v>
+        <v>186.157723980606</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189946</v>
+        <v>399.8722171189974</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223452</v>
+        <v>668.6238185223493</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352414</v>
+        <v>958.8971200352469</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228311</v>
+        <v>1202.220686228317</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639499</v>
+        <v>1378.176233639507</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906539</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906539</v>
+        <v>1401.100270703772</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906539</v>
+        <v>1258.309378699367</v>
       </c>
       <c r="T6" t="n">
-        <v>1250.338042626294</v>
+        <v>1258.309378699367</v>
       </c>
       <c r="U6" t="n">
-        <v>1250.338042626294</v>
+        <v>1258.309378699367</v>
       </c>
       <c r="V6" t="n">
-        <v>1015.185934394551</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="W6" t="n">
-        <v>760.9485776663496</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="X6" t="n">
-        <v>553.0970774608168</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.9452580035322</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.5350520040866</v>
+        <v>233.4109967442953</v>
       </c>
       <c r="C7" t="n">
-        <v>332.5350520040866</v>
+        <v>233.4109967442953</v>
       </c>
       <c r="D7" t="n">
-        <v>332.5350520040866</v>
+        <v>233.4109967442953</v>
       </c>
       <c r="E7" t="n">
-        <v>332.5350520040866</v>
+        <v>233.4109967442953</v>
       </c>
       <c r="F7" t="n">
-        <v>185.6451045061762</v>
+        <v>233.4109967442953</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306131</v>
+        <v>65.10546964306123</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306131</v>
+        <v>65.10546964306123</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306131</v>
+        <v>65.10546964306123</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675739</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="K7" t="n">
-        <v>64.240666625746</v>
+        <v>64.24066662574674</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584098</v>
+        <v>132.1299861584112</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347947</v>
+        <v>206.9680378347967</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195333</v>
+        <v>287.884133819536</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934676</v>
+        <v>342.310156193471</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857957</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040866</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040866</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="S7" t="n">
-        <v>332.5350520040866</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="T7" t="n">
-        <v>332.5350520040866</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="U7" t="n">
-        <v>332.5350520040866</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="V7" t="n">
-        <v>332.5350520040866</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="W7" t="n">
-        <v>332.5350520040866</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="X7" t="n">
-        <v>332.5350520040866</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="Y7" t="n">
-        <v>332.5350520040866</v>
+        <v>233.4109967442953</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.859413381708</v>
+        <v>1124.456920967174</v>
       </c>
       <c r="C8" t="n">
-        <v>1662.859413381708</v>
+        <v>755.4944040267628</v>
       </c>
       <c r="D8" t="n">
-        <v>1304.593714774958</v>
+        <v>755.4944040267628</v>
       </c>
       <c r="E8" t="n">
-        <v>918.8054621767137</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F8" t="n">
-        <v>507.8195573871062</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.587892771188</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.859413381708</v>
+        <v>1794.994068643573</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.859413381708</v>
+        <v>1511.056761031296</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829912</v>
+        <v>700.0609647479939</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018642</v>
+        <v>525.6079354668669</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406129</v>
+        <v>376.6735258056157</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351574</v>
+        <v>217.4360708001602</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>217.4360708001602</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.22704733349</v>
+        <v>1538.12545746675</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101748</v>
+        <v>1538.12545746675</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373546</v>
+        <v>1283.888100738549</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168013</v>
+        <v>1076.036600533016</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030593</v>
+        <v>868.276301768062</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4664265514538</v>
+        <v>338.6408822103592</v>
       </c>
       <c r="C10" t="n">
-        <v>359.7366157340737</v>
+        <v>169.7046992824523</v>
       </c>
       <c r="D10" t="n">
-        <v>209.6199763217379</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5071,10 +5071,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7084350851671</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>546.5917956728314</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>398.6787020904383</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>251.7887545925279</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>1173.392154561018</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
@@ -5284,7 +5284,7 @@
         <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,19 +5363,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2387.388512467613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5503,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,28 +5533,28 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2387.388512467613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="23">
@@ -6016,7 +6016,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>1089.575996120531</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>920.6398131926237</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>770.5231737802879</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>622.6100801978948</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6177,22 +6177,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1720.006590992318</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.482048055643</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1750.40682139984</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1495.722333193953</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1206.305163156993</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6727,13 +6727,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6779,19 +6779,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>255.5942300127263</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>113.8823988549244</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7171,19 +7171,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,31 +7192,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7645,16 +7645,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.8542358274209</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>90.39760398172392</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>69.70496293143138</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>12.04875628922446</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347514</v>
+        <v>9.000252501565768</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>61.40075786968242</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>61.40075786968251</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>55.21102825632917</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>74.83129810813878</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>35.11263957635549</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>34.97276993489146</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.315908539</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380347</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442552</v>
@@ -26355,7 +26355,7 @@
         <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208459</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253088</v>
+        <v>270592.3620253111</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231979</v>
+        <v>115410.0540231936</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742643</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854444</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881897</v>
+        <v>62913.63765881937</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.2536219761</v>
+        <v>27875.25362197513</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341297</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263473</v>
+        <v>206604.4229263464</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26447,13 +26447,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.8004116136</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.7347193679</v>
+        <v>76435.73471936813</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249519.8076285544</v>
+        <v>-249519.8076285556</v>
       </c>
       <c r="C6" t="n">
-        <v>123726.9404670107</v>
+        <v>123726.9404670083</v>
       </c>
       <c r="D6" t="n">
-        <v>302547.3341700663</v>
+        <v>302547.3341700707</v>
       </c>
       <c r="E6" t="n">
-        <v>-51843.8679501404</v>
+        <v>-51531.22662122038</v>
       </c>
       <c r="F6" t="n">
-        <v>549599.3396241234</v>
+        <v>549911.980953045</v>
       </c>
       <c r="G6" t="n">
-        <v>549599.3396241236</v>
+        <v>549911.9809530447</v>
       </c>
       <c r="H6" t="n">
-        <v>549599.3396241234</v>
+        <v>549911.980953045</v>
       </c>
       <c r="I6" t="n">
-        <v>549599.3396241236</v>
+        <v>549911.980953045</v>
       </c>
       <c r="J6" t="n">
-        <v>500534.3948955793</v>
+        <v>500847.0362245005</v>
       </c>
       <c r="K6" t="n">
-        <v>486685.7019653046</v>
+        <v>486998.3432942255</v>
       </c>
       <c r="L6" t="n">
-        <v>521724.0860021476</v>
+        <v>522036.7273310698</v>
       </c>
       <c r="M6" t="n">
-        <v>392452.9590725258</v>
+        <v>392765.6004014469</v>
       </c>
       <c r="N6" t="n">
-        <v>549599.3396241236</v>
+        <v>549911.980953045</v>
       </c>
       <c r="O6" t="n">
-        <v>549599.3396241236</v>
+        <v>549911.9809530451</v>
       </c>
       <c r="P6" t="n">
-        <v>549599.3396241236</v>
+        <v>549911.9809530452</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950585</v>
+        <v>758.899629295061</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594674</v>
+        <v>431.9757039594703</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26813,22 +26813,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.921966200080314e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821543</v>
+        <v>210.429688382156</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262664</v>
+        <v>94.81103524262301</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.26483580399</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931478</v>
+        <v>244.45011679315</v>
       </c>
       <c r="D4" t="n">
-        <v>110.139252766697</v>
+        <v>110.1392527666929</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663193</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931482</v>
+        <v>244.4501167931498</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766697</v>
+        <v>110.1392527666931</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931478</v>
+        <v>244.45011679315</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766697</v>
+        <v>110.1392527666929</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971609</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>235.1016825370018</v>
+        <v>177.7473046046873</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>269.8287907659926</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27438,7 +27438,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038153</v>
+        <v>140.2266713038146</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>77.80049122664308</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409146</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265831</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846313</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377063</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>67.62804997333029</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459931</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098472</v>
+        <v>18.15710861098407</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.39952676377833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,16 +27554,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>73.49127351643173</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825411</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402843</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709376</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159719</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>132.8223696106903</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>230.858320760104</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714736</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276009</v>
+        <v>92.8578877276005</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425986</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372558</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>39.78321074229154</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246138</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937538</v>
+        <v>43.32085084937519</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074836</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>16.37051481955299</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>163.9523945145926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>47.288233315738</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836598</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166226</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>120.4518386448972</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>334.5552889363698</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>105.1400041198996</v>
       </c>
     </row>
     <row r="9">
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>115.2302539023255</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>57.68184158944398</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27988,10 +27988,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.8943083894215</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>23.5433253012967</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-5.237329468659384e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-5.578167937219307e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954487</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043125</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528641</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672895</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470027</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244297</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974685</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619227</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924588</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590854</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405035</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292676</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628874</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550082</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288822</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390168</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445827</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620023</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.925421811142</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276992</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604416</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820539</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784866</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181398</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05085278108566</v>
+        <v>3.05085278108567</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429353</v>
+        <v>31.24454604429363</v>
       </c>
       <c r="I5" t="n">
-        <v>117.618001842805</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286693</v>
+        <v>258.9373162286701</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520253</v>
+        <v>388.0799144520266</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511757</v>
+        <v>481.4474502511773</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968078</v>
+        <v>535.7030533968095</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610675</v>
+        <v>544.3712888610693</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191469</v>
+        <v>514.0343715191486</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860946</v>
+        <v>438.7164434860961</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634643</v>
+        <v>329.4577782634654</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098723</v>
+        <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898954</v>
+        <v>69.52130774898977</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920248</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868528</v>
+        <v>0.2440682224868536</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030881</v>
+        <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403509</v>
+        <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062462</v>
+        <v>56.20152915062481</v>
       </c>
       <c r="J6" t="n">
-        <v>154.221291647593</v>
+        <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431662</v>
+        <v>263.5887514316628</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721875</v>
+        <v>354.4276051721887</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658068</v>
+        <v>413.6002979658082</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468649</v>
+        <v>424.5470671468663</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374438</v>
+        <v>388.377624437445</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872477</v>
+        <v>311.7072835872488</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547489</v>
+        <v>208.3680642547496</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632156</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947708</v>
+        <v>30.32018801947718</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378854</v>
+        <v>6.579516597378876</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757159</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236991</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>12.1672760237798</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734515</v>
+        <v>41.15475366734528</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635523</v>
+        <v>96.75348224635555</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260794</v>
+        <v>158.9956928260799</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162523</v>
+        <v>203.4597465162529</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539913</v>
+        <v>214.5197755399137</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752848</v>
+        <v>209.4189747528487</v>
       </c>
       <c r="O7" t="n">
-        <v>193.432318627534</v>
+        <v>193.4323186275346</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514992</v>
+        <v>165.5147650514998</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235538</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054685</v>
+        <v>61.53307486054705</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391191</v>
+        <v>23.84935392391199</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830776</v>
+        <v>5.847259438830796</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656321</v>
+        <v>0.07464586517656345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31864,7 +31864,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32083,7 +32083,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>307.3280120589129</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>307.3280120589129</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -33025,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868222</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788355</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973023</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504118</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656916013</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065995</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781483</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606293</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755149</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855714</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440765007</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646089</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061166</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520837</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400637</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198297</v>
+        <v>77.89141170198383</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070448</v>
+        <v>167.9900634070461</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811885</v>
+        <v>245.6810352811901</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695351</v>
+        <v>305.3568201695368</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644765</v>
+        <v>314.9582252644784</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974602</v>
+        <v>283.9361600974619</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730825</v>
+        <v>207.4834477308265</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890148</v>
+        <v>107.1520883890159</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092631</v>
+        <v>27.38366498092682</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457303</v>
+        <v>125.7473124573038</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923133</v>
+        <v>215.8732253923145</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437885</v>
+        <v>271.4662640437899</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635316</v>
+        <v>293.2053550635329</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799929993</v>
+        <v>245.7813799930006</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729175</v>
+        <v>177.7328761729185</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872741</v>
+        <v>68.3862901687281</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554404</v>
+        <v>29.98243465554455</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501398</v>
+        <v>68.57507023501464</v>
       </c>
       <c r="M7" t="n">
-        <v>75.5939915923079</v>
+        <v>75.59399159230861</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761479</v>
+        <v>81.73343028761548</v>
       </c>
       <c r="O7" t="n">
-        <v>54.9757801756912</v>
+        <v>54.97578017569182</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235162</v>
+        <v>27.78676100235216</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.3462379728913</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.3462379728913</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
